--- a/Nightmare_tests/SearchDensitySpeedUp_nightmare.xlsx
+++ b/Nightmare_tests/SearchDensitySpeedUp_nightmare.xlsx
@@ -5,16 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/Assignment1-Parallel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/GTHMEL001-PCPA1/myrepo/Nightmare_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAEF70A3-71C6-0642-81F5-2412020A3AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F937A3A-C3C2-E24B-9E71-7CF3DD1EF61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="19500" windowHeight="16480" xr2:uid="{180820FA-13E4-0747-A020-F133B4A12F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$F$2:$F$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$26</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -107,6 +130,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speedup Graph Showing the Speedup For Different Search Densities In The Parallel Solution Over Increasing Problem Size For The Nightmare Sever</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -120,12 +165,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -145,8 +187,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Search Density = 0.1</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -156,13 +201,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -345,8 +414,11 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Search Density = 0.3</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -356,13 +428,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -530,7 +626,7 @@
                   <c:v>2.2211055276381901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.40672782874617</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,8 +641,11 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Search Density = 0.5</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -556,13 +655,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -682,7 +805,7 @@
                   <c:v>1.3030303030303001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7741935483870899</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2909090909090899</c:v>
@@ -745,8 +868,11 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Search Density = 0.7</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -756,17 +882,55 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$26</c:f>
@@ -930,7 +1094,7 @@
                   <c:v>2.3722084367245602</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4818049490538501</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,11 +1109,12 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Search Density = 0.9</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -958,13 +1123,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1166,7 +1355,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1176,20 +1365,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid Size     (units^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45934242626451355"/>
+              <c:y val="0.87635073680782516"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1200,10 +1445,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1221,6 +1463,7 @@
         <c:axId val="1451358175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1228,7 +1471,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1238,20 +1481,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1262,10 +1553,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1304,10 +1592,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1335,7 +1620,846 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speedup Graph Showing the Speedup For Different Search Densities In The Parallel Solution Over Increasing Problem Size For The Nightmare Sever</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Search Density = 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>590400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>754400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>938400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1874400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2158400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2462400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2786400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3130400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3494400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3878400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4282400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4706400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5150400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5614400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6098400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55555555555555503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0588235294117601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.46428571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.72413793103448</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.70588235294117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.76315789473684</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.68888888888888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.70588235294117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.81481481481481</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.91525423728813</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9677419354838701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0606060606060601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9418604651162701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE21-4C4F-B065-9FDBD6872435}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Search Density = 0.9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>590400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>754400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>938400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1874400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2158400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2462400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2786400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3130400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3494400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3878400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4282400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4706400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5150400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5614400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6098400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0588235294117601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.24242424242424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3409090909090899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3278688524590101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.56944444444444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8271604938271599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2403846153846101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0461538461538402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.08383233532934</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4393063583814998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3864734299516899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4323144104803398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.32926829268292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4315789473684202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2098360655737701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5031249999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1348039215686199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.52830188679245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6325167037861901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6556291390728402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CE21-4C4F-B065-9FDBD6872435}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1510758303"/>
+        <c:axId val="1451358175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1510758303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid Size     (units^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1451358175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1451358175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1510758303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1402,36 +2526,70 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1444,7 +2602,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1452,7 +2610,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1460,17 +2618,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1479,9 +2634,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1504,35 +2658,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1544,18 +2698,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1564,10 +2719,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1583,21 +2738,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1607,23 +2757,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1632,17 +2781,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1651,14 +2800,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1670,26 +2818,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1703,217 +2845,681 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1928,10 +3534,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1951,6 +3557,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12D25F0-9D43-964C-B5F7-759F03DEFC98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2258,8 +3902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F897E1A-275C-7F43-8DF6-4FCD233193E6}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2468,7 +4112,7 @@
         <v>1.5384615384615301</v>
       </c>
       <c r="D10" s="1">
-        <v>2.7741935483870899</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1.44827586206896</v>
@@ -2817,13 +4461,13 @@
         <v>1.9418604651162701</v>
       </c>
       <c r="C26" s="1">
-        <v>1.40672782874617</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
         <v>2.32615384615384</v>
       </c>
       <c r="E26" s="1">
-        <v>1.4818049490538501</v>
+        <v>2.4</v>
       </c>
       <c r="F26" s="1">
         <v>2.6556291390728402</v>
